--- a/example/B 參數.xlsx
+++ b/example/B 參數.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC3A2E5-0C45-4A4E-B18D-0FE84A81DFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1B0CEA-D840-4D3A-8C3D-AF881682A907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="評鑑指標" sheetId="1" r:id="rId1"/>
@@ -67,15 +67,9 @@
     <t>1.4.1.1</t>
   </si>
   <si>
-    <t>學士班獲獎助學金平均金額</t>
-  </si>
-  <si>
     <t>1.7.1.4</t>
   </si>
   <si>
-    <t>碩士班平均修業年限</t>
-  </si>
-  <si>
     <t>數值</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
   </si>
   <si>
     <t>2.3.1.2</t>
-  </si>
-  <si>
-    <t>各系所教師兼任本校二級學術行政主管人次</t>
   </si>
   <si>
     <t>3.2.1.1</t>
@@ -1026,9 +1017,6 @@
     <t>1.1.1.2</t>
   </si>
   <si>
-    <t>學士班個人申請入學錄取率</t>
-  </si>
-  <si>
     <t>1.1.1.3</t>
   </si>
   <si>
@@ -1454,6 +1442,22 @@
   <si>
     <t>小結
 分組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學士班獲獎助學金平均金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各系所教師兼任本校二級學術行政主管人次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碩士班平均修業年限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學士班個人申請入學錄取率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2682,8 +2686,8 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2699,19 +2703,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>320</v>
-      </c>
       <c r="F1" s="29" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5">
@@ -2736,10 +2740,10 @@
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="30" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>322</v>
+        <v>464</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>3</v>
@@ -2756,10 +2760,10 @@
     </row>
     <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="30" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>3</v>
@@ -2776,10 +2780,10 @@
     </row>
     <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="30" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>3</v>
@@ -2796,10 +2800,10 @@
     </row>
     <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="30" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>3</v>
@@ -2816,10 +2820,10 @@
     </row>
     <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="30" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>3</v>
@@ -2836,10 +2840,10 @@
     </row>
     <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="30" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>3</v>
@@ -2856,10 +2860,10 @@
     </row>
     <row r="9" spans="1:6" ht="16.5">
       <c r="A9" s="30" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>3</v>
@@ -2876,10 +2880,10 @@
     </row>
     <row r="10" spans="1:6" ht="16.5">
       <c r="A10" s="30" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>3</v>
@@ -2896,10 +2900,10 @@
     </row>
     <row r="11" spans="1:6" ht="16.5">
       <c r="A11" s="30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>3</v>
@@ -2916,10 +2920,10 @@
     </row>
     <row r="12" spans="1:6" ht="16.5">
       <c r="A12" s="30" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>3</v>
@@ -2936,10 +2940,10 @@
     </row>
     <row r="13" spans="1:6" ht="16.5">
       <c r="A13" s="30" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>3</v>
@@ -2956,10 +2960,10 @@
     </row>
     <row r="14" spans="1:6" ht="16.5">
       <c r="A14" s="30" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>3</v>
@@ -2996,10 +3000,10 @@
     </row>
     <row r="16" spans="1:6" ht="16.5">
       <c r="A16" s="34" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C16" s="36" t="s">
         <v>3</v>
@@ -3016,10 +3020,10 @@
     </row>
     <row r="17" spans="1:6" ht="16.5">
       <c r="A17" s="34" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>3</v>
@@ -3036,10 +3040,10 @@
     </row>
     <row r="18" spans="1:6" ht="16.5">
       <c r="A18" s="34" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C18" s="36" t="s">
         <v>3</v>
@@ -3056,10 +3060,10 @@
     </row>
     <row r="19" spans="1:6" ht="16.5">
       <c r="A19" s="34" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>3</v>
@@ -3076,10 +3080,10 @@
     </row>
     <row r="20" spans="1:6" ht="16.5">
       <c r="A20" s="34" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C20" s="36" t="s">
         <v>3</v>
@@ -3096,10 +3100,10 @@
     </row>
     <row r="21" spans="1:6" ht="16.5">
       <c r="A21" s="34" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>3</v>
@@ -3116,10 +3120,10 @@
     </row>
     <row r="22" spans="1:6" ht="16.5">
       <c r="A22" s="34" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>3</v>
@@ -3136,10 +3140,10 @@
     </row>
     <row r="23" spans="1:6" ht="16.5">
       <c r="A23" s="30" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>3</v>
@@ -3156,10 +3160,10 @@
     </row>
     <row r="24" spans="1:6" ht="16.5">
       <c r="A24" s="30" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>3</v>
@@ -3176,10 +3180,10 @@
     </row>
     <row r="25" spans="1:6" ht="16.5">
       <c r="A25" s="30" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>3</v>
@@ -3199,10 +3203,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>10</v>
+        <v>461</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D26" s="40" t="s">
         <v>6</v>
@@ -3216,13 +3220,13 @@
     </row>
     <row r="27" spans="1:6" ht="16.5">
       <c r="A27" s="38" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>6</v>
@@ -3236,13 +3240,13 @@
     </row>
     <row r="28" spans="1:6" ht="16.5">
       <c r="A28" s="38" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>6</v>
@@ -3256,10 +3260,10 @@
     </row>
     <row r="29" spans="1:6" ht="16.5">
       <c r="A29" s="38" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C29" s="40" t="s">
         <v>3</v>
@@ -3276,10 +3280,10 @@
     </row>
     <row r="30" spans="1:6" ht="16.5">
       <c r="A30" s="38" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>3</v>
@@ -3296,10 +3300,10 @@
     </row>
     <row r="31" spans="1:6" ht="16.5">
       <c r="A31" s="38" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>3</v>
@@ -3316,10 +3320,10 @@
     </row>
     <row r="32" spans="1:6" ht="16.5">
       <c r="A32" s="38" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>3</v>
@@ -3336,10 +3340,10 @@
     </row>
     <row r="33" spans="1:6" ht="16.5">
       <c r="A33" s="38" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>3</v>
@@ -3356,10 +3360,10 @@
     </row>
     <row r="34" spans="1:6" ht="16.5">
       <c r="A34" s="38" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>3</v>
@@ -3376,10 +3380,10 @@
     </row>
     <row r="35" spans="1:6" ht="16.5">
       <c r="A35" s="30" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C35" s="32" t="s">
         <v>3</v>
@@ -3396,10 +3400,10 @@
     </row>
     <row r="36" spans="1:6" ht="16.5">
       <c r="A36" s="30" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C36" s="32" t="s">
         <v>3</v>
@@ -3416,10 +3420,10 @@
     </row>
     <row r="37" spans="1:6" ht="16.5">
       <c r="A37" s="30" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C37" s="32" t="s">
         <v>3</v>
@@ -3436,10 +3440,10 @@
     </row>
     <row r="38" spans="1:6" ht="16.5">
       <c r="A38" s="30" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C38" s="32" t="s">
         <v>3</v>
@@ -3456,10 +3460,10 @@
     </row>
     <row r="39" spans="1:6" ht="16.5">
       <c r="A39" s="30" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C39" s="32" t="s">
         <v>3</v>
@@ -3476,10 +3480,10 @@
     </row>
     <row r="40" spans="1:6" ht="16.5">
       <c r="A40" s="30" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C40" s="32" t="s">
         <v>3</v>
@@ -3496,10 +3500,10 @@
     </row>
     <row r="41" spans="1:6" ht="16.5">
       <c r="A41" s="30" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C41" s="32" t="s">
         <v>3</v>
@@ -3516,10 +3520,10 @@
     </row>
     <row r="42" spans="1:6" ht="16.5">
       <c r="A42" s="38" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C42" s="40" t="s">
         <v>3</v>
@@ -3536,10 +3540,10 @@
     </row>
     <row r="43" spans="1:6" ht="16.5">
       <c r="A43" s="38" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C43" s="40" t="s">
         <v>3</v>
@@ -3556,10 +3560,10 @@
     </row>
     <row r="44" spans="1:6" ht="16.5">
       <c r="A44" s="30" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C44" s="32" t="s">
         <v>3</v>
@@ -3576,10 +3580,10 @@
     </row>
     <row r="45" spans="1:6" ht="16.5">
       <c r="A45" s="30" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>3</v>
@@ -3596,10 +3600,10 @@
     </row>
     <row r="46" spans="1:6" ht="16.5">
       <c r="A46" s="30" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C46" s="32" t="s">
         <v>3</v>
@@ -3616,13 +3620,13 @@
     </row>
     <row r="47" spans="1:6" ht="16.5">
       <c r="A47" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="C47" s="32" t="s">
         <v>11</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>13</v>
       </c>
       <c r="D47" s="32" t="s">
         <v>4</v>
@@ -3636,13 +3640,13 @@
     </row>
     <row r="48" spans="1:6" ht="16.5">
       <c r="A48" s="30" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D48" s="32" t="s">
         <v>4</v>
@@ -3656,10 +3660,10 @@
     </row>
     <row r="49" spans="1:6" ht="16.5">
       <c r="A49" s="38" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C49" s="40" t="s">
         <v>3</v>
@@ -3676,10 +3680,10 @@
     </row>
     <row r="50" spans="1:6" ht="16.5">
       <c r="A50" s="38" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C50" s="40" t="s">
         <v>3</v>
@@ -3696,10 +3700,10 @@
     </row>
     <row r="51" spans="1:6" ht="16.5">
       <c r="A51" s="38" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C51" s="40" t="s">
         <v>3</v>
@@ -3716,10 +3720,10 @@
     </row>
     <row r="52" spans="1:6" ht="16.5">
       <c r="A52" s="38" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C52" s="40" t="s">
         <v>3</v>
@@ -3736,10 +3740,10 @@
     </row>
     <row r="53" spans="1:6" ht="16.5">
       <c r="A53" s="38" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C53" s="40" t="s">
         <v>3</v>
@@ -3756,10 +3760,10 @@
     </row>
     <row r="54" spans="1:6" ht="16.5">
       <c r="A54" s="38" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C54" s="40" t="s">
         <v>3</v>
@@ -3776,13 +3780,13 @@
     </row>
     <row r="55" spans="1:6" ht="16.5">
       <c r="A55" s="42" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D55" s="44" t="s">
         <v>6</v>
@@ -3796,13 +3800,13 @@
     </row>
     <row r="56" spans="1:6" ht="16.5">
       <c r="A56" s="42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D56" s="44" t="s">
         <v>6</v>
@@ -3816,10 +3820,10 @@
     </row>
     <row r="57" spans="1:6" ht="16.5">
       <c r="A57" s="42" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C57" s="44" t="s">
         <v>3</v>
@@ -3836,19 +3840,19 @@
     </row>
     <row r="58" spans="1:6" ht="16.5">
       <c r="A58" s="42" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C58" s="44" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D58" s="44" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F58" s="45">
         <v>9</v>
@@ -3856,13 +3860,13 @@
     </row>
     <row r="59" spans="1:6" ht="16.5">
       <c r="A59" s="46" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C59" s="48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D59" s="48" t="s">
         <v>6</v>
@@ -3876,13 +3880,13 @@
     </row>
     <row r="60" spans="1:6" ht="16.5">
       <c r="A60" s="46" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C60" s="48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D60" s="48" t="s">
         <v>6</v>
@@ -3896,13 +3900,13 @@
     </row>
     <row r="61" spans="1:6" ht="16.5">
       <c r="A61" s="46" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C61" s="48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D61" s="48" t="s">
         <v>6</v>
@@ -3916,13 +3920,13 @@
     </row>
     <row r="62" spans="1:6" ht="16.5">
       <c r="A62" s="46" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B62" s="47" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D62" s="48" t="s">
         <v>6</v>
@@ -3936,13 +3940,13 @@
     </row>
     <row r="63" spans="1:6" ht="16.5">
       <c r="A63" s="46" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B63" s="47" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D63" s="48" t="s">
         <v>6</v>
@@ -3956,13 +3960,13 @@
     </row>
     <row r="64" spans="1:6" ht="16.5">
       <c r="A64" s="46" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B64" s="47" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D64" s="48" t="s">
         <v>6</v>
@@ -3976,13 +3980,13 @@
     </row>
     <row r="65" spans="1:6" ht="16.5">
       <c r="A65" s="46" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B65" s="47" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C65" s="48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D65" s="48" t="s">
         <v>6</v>
@@ -3996,13 +4000,13 @@
     </row>
     <row r="66" spans="1:6" ht="16.5">
       <c r="A66" s="46" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B66" s="47" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C66" s="48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D66" s="48" t="s">
         <v>6</v>
@@ -4016,13 +4020,13 @@
     </row>
     <row r="67" spans="1:6" ht="16.5">
       <c r="A67" s="46" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B67" s="47" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C67" s="48" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D67" s="48" t="s">
         <v>6</v>
@@ -4036,13 +4040,13 @@
     </row>
     <row r="68" spans="1:6" ht="16.5">
       <c r="A68" s="46" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B68" s="47" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C68" s="48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D68" s="48" t="s">
         <v>6</v>
@@ -4056,13 +4060,13 @@
     </row>
     <row r="69" spans="1:6" ht="16.5">
       <c r="A69" s="46" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B69" s="47" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C69" s="48" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D69" s="48" t="s">
         <v>6</v>
@@ -4076,10 +4080,10 @@
     </row>
     <row r="70" spans="1:6" ht="16.5">
       <c r="A70" s="46" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B70" s="47" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C70" s="48" t="s">
         <v>3</v>
@@ -4096,10 +4100,10 @@
     </row>
     <row r="71" spans="1:6" ht="16.5">
       <c r="A71" s="46" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B71" s="47" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C71" s="48" t="s">
         <v>3</v>
@@ -4116,19 +4120,19 @@
     </row>
     <row r="72" spans="1:6" ht="16.5">
       <c r="A72" s="42" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C72" s="44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D72" s="44" t="s">
         <v>6</v>
       </c>
       <c r="E72" s="44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F72" s="45">
         <v>11</v>
@@ -4136,19 +4140,19 @@
     </row>
     <row r="73" spans="1:6" ht="16.5">
       <c r="A73" s="42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>18</v>
+        <v>462</v>
       </c>
       <c r="C73" s="44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D73" s="44" t="s">
         <v>6</v>
       </c>
       <c r="E73" s="44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F73" s="45">
         <v>11</v>
@@ -4156,13 +4160,13 @@
     </row>
     <row r="74" spans="1:6" ht="16.5">
       <c r="A74" s="50" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B74" s="51" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D74" s="52" t="s">
         <v>4</v>
@@ -4176,10 +4180,10 @@
     </row>
     <row r="75" spans="1:6" ht="16.5">
       <c r="A75" s="50" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B75" s="51" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C75" s="52" t="s">
         <v>3</v>
@@ -4196,10 +4200,10 @@
     </row>
     <row r="76" spans="1:6" ht="16.5">
       <c r="A76" s="50" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B76" s="51" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C76" s="52" t="s">
         <v>3</v>
@@ -4216,10 +4220,10 @@
     </row>
     <row r="77" spans="1:6" ht="16.5">
       <c r="A77" s="50" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C77" s="52" t="s">
         <v>3</v>
@@ -4236,19 +4240,19 @@
     </row>
     <row r="78" spans="1:6" ht="16.5">
       <c r="A78" s="54" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B78" s="55" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C78" s="56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D78" s="56" t="s">
         <v>6</v>
       </c>
       <c r="E78" s="56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F78" s="57">
         <v>13</v>
@@ -4256,10 +4260,10 @@
     </row>
     <row r="79" spans="1:6" ht="16.5">
       <c r="A79" s="54" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B79" s="55" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C79" s="56" t="s">
         <v>3</v>
@@ -4301,8 +4305,8 @@
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15.75"/>
@@ -4316,1821 +4320,1821 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E1" s="19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5">
       <c r="A2" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5">
       <c r="A3" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B3" s="26">
         <v>100</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B4" s="27">
         <v>700</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B5" s="24">
         <v>200</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B6" s="24">
         <v>600</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B7" s="24">
         <v>300</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B8" s="24">
         <v>500</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B9" s="24">
         <v>400</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B10" s="24">
         <v>800</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B11" s="24">
         <v>900</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="10">
         <v>100</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" s="14">
         <v>101</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" s="14">
         <v>103</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" s="14">
         <v>104</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" s="14">
         <v>155</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" s="14">
         <v>156</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" s="14">
         <v>158</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" s="14">
         <v>159</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5">
       <c r="A22" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" s="14">
         <v>161</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" s="11">
         <v>160</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B24" s="11">
         <v>912</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B25" s="11">
         <v>913</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" s="11">
         <v>700</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B27" s="6">
         <v>701</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28" s="6">
         <v>702</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B29" s="6">
         <v>754</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5">
       <c r="A30" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B30" s="6">
         <v>755</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B31" s="11">
         <v>200</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5">
       <c r="A32" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B32" s="6">
         <v>202</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B33" s="6">
         <v>204</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B34" s="6">
         <v>205</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.5">
       <c r="A35" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B35" s="6">
         <v>206</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.5">
       <c r="A36" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B36" s="6">
         <v>207</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5">
       <c r="A37" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B37" s="6">
         <v>208</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5">
       <c r="A38" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B38" s="6">
         <v>209</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5">
       <c r="A39" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B39" s="6">
         <v>261</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5">
       <c r="A40" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B40" s="6">
         <v>262</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.5">
       <c r="A41" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B41" s="6">
         <v>264</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5">
       <c r="A42" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B42" s="6">
         <v>265</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5">
       <c r="A43" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B43" s="6">
         <v>921</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.5">
       <c r="A44" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B44" s="6">
         <v>923</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.5">
       <c r="A45" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B45" s="6">
         <v>926</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.5">
       <c r="A46" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B46" s="6">
         <v>266</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.5">
       <c r="A47" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B47" s="6">
         <v>267</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.5">
       <c r="A48" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B48" s="14">
         <v>600</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.5">
       <c r="A49" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B49" s="6">
         <v>601</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.5">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B50" s="6">
         <v>652</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.5">
       <c r="A51" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B51" s="6">
         <v>961</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.5">
       <c r="A52" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B52" s="11">
         <v>300</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5">
       <c r="A53" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B53" s="6">
         <v>301</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.5">
       <c r="A54" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B54" s="6">
         <v>302</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.5">
       <c r="A55" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B55" s="6">
         <v>303</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.5">
       <c r="A56" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B56" s="6">
         <v>304</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.5">
       <c r="A57" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B57" s="6">
         <v>305</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.5">
       <c r="A58" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B58" s="6">
         <v>306</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.5">
       <c r="A59" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B59" s="6">
         <v>307</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.5">
       <c r="A60" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B60" s="6">
         <v>308</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.5">
       <c r="A61" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B61" s="6">
         <v>364</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.5">
       <c r="A62" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B62" s="6">
         <v>933</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.5">
       <c r="A63" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B63" s="6">
         <v>932</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.5">
       <c r="A64" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B64" s="6">
         <v>363</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.5">
       <c r="A65" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B65" s="14">
         <v>500</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.5">
       <c r="A66" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B66" s="6">
         <v>501</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.5">
       <c r="A67" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B67" s="6">
         <v>502</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.5">
       <c r="A68" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B68" s="6">
         <v>504</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.5">
       <c r="A69" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B69" s="6">
         <v>506</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.5">
       <c r="A70" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B70" s="6">
         <v>507</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.5">
       <c r="A71" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B71" s="6">
         <v>508</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.5">
       <c r="A72" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B72" s="6">
         <v>555</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.5">
       <c r="A73" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B73" s="6">
         <v>509</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.5">
       <c r="A74" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B74" s="6">
         <v>951</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.5">
       <c r="A75" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B75" s="6">
         <v>560</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.5">
       <c r="A76" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B76" s="6">
         <v>510</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16.5">
       <c r="A77" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B77" s="11">
         <v>400</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.5">
       <c r="A78" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B78" s="6">
         <v>401</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.5">
       <c r="A79" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B79" s="6">
         <v>402</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.5">
       <c r="A80" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B80" s="6">
         <v>403</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.5">
       <c r="A81" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B81" s="6">
         <v>405</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5">
       <c r="A82" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B82" s="6">
         <v>461</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.5">
       <c r="A83" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B83" s="6">
         <v>941</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.5">
       <c r="A84" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B84" s="6">
         <v>462</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.5">
       <c r="A85" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B85" s="6">
         <v>463</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.5">
       <c r="A86" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B86" s="6">
         <v>464</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.5">
       <c r="A87" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B87" s="11">
         <v>800</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.5">
       <c r="A88" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B88" s="6">
         <v>203</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="16.5">
       <c r="A89" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B89" s="6">
         <v>260</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="16.5">
       <c r="A90" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B90" s="6">
         <v>263</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16.5">
       <c r="A91" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B91" s="6">
         <v>861</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16.5">
       <c r="A92" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B92" s="6">
         <v>922</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16.5">
       <c r="A93" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B93" s="6">
         <v>981</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="16.5">
       <c r="A94" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B94" s="6">
         <v>863</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="16.5">
       <c r="A95" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B95" s="6">
         <v>862</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="16.5">
       <c r="A96" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B96" s="11">
         <v>900</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="16.5">
       <c r="A97" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B97" s="6">
         <v>102</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="16.5">
       <c r="A98" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B98" s="6">
         <v>157</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="16.5">
       <c r="A99" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B99" s="6">
         <v>171</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="16.5">
       <c r="A100" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B100" s="6">
         <v>172</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="16.5">
       <c r="A101" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B101" s="6">
         <v>911</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="16.5">
       <c r="A102" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="16.5">
       <c r="A103" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="16.5">
       <c r="A104" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="D104" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="16.5">
       <c r="A105" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="16.5">
       <c r="A106" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B106" s="6">
         <v>703</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="16.5">
       <c r="A107" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B107" s="6">
         <v>971</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
